--- a/导表工具/Excels/BattleUnit.xlsx
+++ b/导表工具/Excels/BattleUnit.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
   <si>
     <t>##</t>
   </si>
@@ -46,12 +46,18 @@
     <t>MOV</t>
   </si>
   <si>
+    <t>SkillList</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
+    <t>list,int</t>
+  </si>
+  <si>
     <t>编号</t>
   </si>
   <si>
@@ -76,6 +82,9 @@
     <t>移动力</t>
   </si>
   <si>
+    <t>技能</t>
+  </si>
+  <si>
     <t>战斗单位编号</t>
   </si>
   <si>
@@ -89,6 +98,39 @@
   </si>
   <si>
     <t>默认单位</t>
+  </si>
+  <si>
+    <t>战士</t>
+  </si>
+  <si>
+    <t>战士模版</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>弓箭手</t>
+  </si>
+  <si>
+    <t>弓箭手模版</t>
+  </si>
+  <si>
+    <t>魔法师</t>
+  </si>
+  <si>
+    <t>魔法师模版</t>
+  </si>
+  <si>
+    <t>牧师</t>
+  </si>
+  <si>
+    <t>牧师模版</t>
+  </si>
+  <si>
+    <t>骑士</t>
+  </si>
+  <si>
+    <t>骑士模版</t>
   </si>
 </sst>
 </file>
@@ -96,10 +138,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -111,6 +153,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -129,13 +178,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -147,6 +189,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -155,14 +198,84 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,79 +289,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,25 +311,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,151 +455,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,6 +496,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -475,11 +526,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,21 +552,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,17 +582,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,153 +601,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1027,15 +1072,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
   <cols>
     <col min="2" max="2" width="14.7232142857143" customWidth="1"/>
+    <col min="3" max="3" width="15.0178571428571" customWidth="1"/>
     <col min="4" max="4" width="14.875" customWidth="1"/>
     <col min="5" max="5" width="12.3482142857143" customWidth="1"/>
     <col min="6" max="6" width="12.1964285714286" customWidth="1"/>
@@ -1049,7 +1095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:10">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -1074,79 +1120,88 @@
       <c r="I2" t="s">
         <v>9</v>
       </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:10">
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" spans="2:10">
       <c r="B4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="2:10">
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -1162,6 +1217,154 @@
       </c>
       <c r="I6">
         <v>4</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="1">
+        <v>10001</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="1">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>4</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="1">
+        <v>10002</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="1">
+        <v>9</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="1">
+        <v>10003</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="1">
+        <v>8</v>
+      </c>
+      <c r="F9" s="1">
+        <v>8</v>
+      </c>
+      <c r="G9" s="1">
+        <v>4</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2</v>
+      </c>
+      <c r="I9" s="1">
+        <v>3</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="1">
+        <v>10004</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="1">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1">
+        <v>6</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2</v>
+      </c>
+      <c r="I10" s="1">
+        <v>3</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="1">
+        <v>10005</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="1">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>6</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
